--- a/fhir/ig/urgencia/StructureDefinition-egreso-urgencia.xlsx
+++ b/fhir/ig/urgencia/StructureDefinition-egreso-urgencia.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3068" uniqueCount="501">
   <si>
     <t>Property</t>
   </si>
@@ -45,7 +45,7 @@
     <t>Title</t>
   </si>
   <si>
-    <t>Encounter Egreso</t>
+    <t>Encuentro Egreso</t>
   </si>
   <si>
     <t>Status</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-08-27T17:49:18-04:00</t>
+    <t>2024-08-29T09:57:29-04:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -90,7 +90,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Registro de un encuentro de egreso de atención de urgencia</t>
+    <t>Registro de un encuentro de egreso de un paciente en un servicio de urgencia.</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -509,6 +509,9 @@
     <t>Note that internal business rules will determine the appropriate transitions that may occur between statuses (and also classes).</t>
   </si>
   <si>
+    <t>finished</t>
+  </si>
+  <si>
     <t>required</t>
   </si>
   <si>
@@ -629,6 +632,12 @@
     <t>Clasificación del encuentro con el paciente</t>
   </si>
   <si>
+    <t>&lt;valueCoding xmlns="http://hl7.org/fhir"&gt;
+  &lt;system value="http://terminology.hl7.org/CodeSystem/v3-ActCode"/&gt;
+  &lt;code value="EMER"/&gt;
+&lt;/valueCoding&gt;</t>
+  </si>
+  <si>
     <t>extensible</t>
   </si>
   <si>
@@ -720,10 +729,15 @@
     <t>Encounter.serviceType</t>
   </si>
   <si>
-    <t>Tipo de servicio que se realiza en el Encuentro</t>
-  </si>
-  <si>
-    <t>Categorización del servicio que se va a prestar en el encuentro (por ejemplo, servicio de Ginecología)</t>
+    <t>Tipo de servicio</t>
+  </si>
+  <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://proceso-urgencia.minsal.cl/CodeSystem/eventos-urgencia"/&gt;
+    &lt;code value="egreso"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
   </si>
   <si>
     <t>https://hl7chile.cl/fhir/ig/clcore/ValueSet/VSTiposServicio</t>
@@ -760,11 +774,11 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CorePacienteCl|Group)
+    <t xml:space="preserve">Reference(http://proceso-urgencia.minsal.cl/StructureDefinition/PacienteUrgencia)
 </t>
   </si>
   <si>
-    <t>Referencia al paciente del encuentro</t>
+    <t>Paciente</t>
   </si>
   <si>
     <t>La referencia al paciente que está presente en el encuentro clínico sobre un paciente nacional.</t>
@@ -1533,11 +1547,11 @@
     <t>Encounter.serviceProvider</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(https://hl7chile.cl/fhir/ig/clcore/StructureDefinition/CoreOrganizacionCl)
+    <t xml:space="preserve">Reference(http://proceso-urgencia.minsal.cl/StructureDefinition/organizacion-establecimiento)
 </t>
   </si>
   <si>
-    <t>La organización (instalación) responsable de este encuentro</t>
+    <t>Establecimiento de salud</t>
   </si>
   <si>
     <t>The organization that is primarily responsible for this Encounter's services. This MAY be the same as the organization on the Patient record, however it could be different, such as if the actor performing the services was from an external organization (which may be billed seperately) for an external consultation.  Refer to the example bundle showing an abbreviated set of Encounters for a colonoscopy.</t>
@@ -3262,7 +3276,7 @@
         <v>22</v>
       </c>
       <c r="S12" t="s" s="2">
-        <v>22</v>
+        <v>158</v>
       </c>
       <c r="T12" t="s" s="2">
         <v>22</v>
@@ -3277,13 +3291,13 @@
         <v>22</v>
       </c>
       <c r="X12" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y12" t="s" s="2">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z12" t="s" s="2">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="AA12" t="s" s="2">
         <v>22</v>
@@ -3316,24 +3330,24 @@
         <v>101</v>
       </c>
       <c r="AK12" t="s" s="2">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="AL12" t="s" s="2">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="AM12" t="s" s="2">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="AN12" t="s" s="2">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -3356,16 +3370,16 @@
         <v>22</v>
       </c>
       <c r="K13" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L13" t="s" s="2">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="M13" t="s" s="2">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="N13" t="s" s="2">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -3415,7 +3429,7 @@
         <v>22</v>
       </c>
       <c r="AF13" t="s" s="2">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="AG13" t="s" s="2">
         <v>80</v>
@@ -3433,7 +3447,7 @@
         <v>22</v>
       </c>
       <c r="AL13" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM13" t="s" s="2">
         <v>22</v>
@@ -3444,10 +3458,10 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
@@ -3470,13 +3484,13 @@
         <v>22</v>
       </c>
       <c r="K14" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L14" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M14" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N14" s="2"/>
       <c r="O14" s="2"/>
@@ -3527,7 +3541,7 @@
         <v>22</v>
       </c>
       <c r="AF14" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG14" t="s" s="2">
         <v>80</v>
@@ -3545,7 +3559,7 @@
         <v>22</v>
       </c>
       <c r="AL14" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM14" t="s" s="2">
         <v>22</v>
@@ -3556,10 +3570,10 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
@@ -3588,7 +3602,7 @@
         <v>136</v>
       </c>
       <c r="M15" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N15" t="s" s="2">
         <v>138</v>
@@ -3641,7 +3655,7 @@
         <v>22</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>80</v>
@@ -3659,7 +3673,7 @@
         <v>22</v>
       </c>
       <c r="AL15" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM15" t="s" s="2">
         <v>22</v>
@@ -3670,14 +3684,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -3699,10 +3713,10 @@
         <v>135</v>
       </c>
       <c r="L16" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M16" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N16" t="s" s="2">
         <v>138</v>
@@ -3757,7 +3771,7 @@
         <v>22</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>80</v>
@@ -3786,10 +3800,10 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
@@ -3815,10 +3829,10 @@
         <v>109</v>
       </c>
       <c r="L17" t="s" s="2">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="M17" t="s" s="2">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="N17" s="2"/>
       <c r="O17" s="2"/>
@@ -3845,13 +3859,13 @@
         <v>22</v>
       </c>
       <c r="X17" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y17" t="s" s="2">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Z17" t="s" s="2">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="AA17" t="s" s="2">
         <v>22</v>
@@ -3869,7 +3883,7 @@
         <v>22</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>89</v>
@@ -3887,7 +3901,7 @@
         <v>22</v>
       </c>
       <c r="AL17" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM17" t="s" s="2">
         <v>22</v>
@@ -3898,10 +3912,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -3924,13 +3938,13 @@
         <v>22</v>
       </c>
       <c r="K18" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L18" t="s" s="2">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="M18" t="s" s="2">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3981,7 +3995,7 @@
         <v>22</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>89</v>
@@ -3999,7 +4013,7 @@
         <v>22</v>
       </c>
       <c r="AL18" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM18" t="s" s="2">
         <v>22</v>
@@ -4010,10 +4024,10 @@
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -4036,13 +4050,13 @@
         <v>90</v>
       </c>
       <c r="K19" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="M19" t="s" s="2">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -4054,7 +4068,7 @@
         <v>22</v>
       </c>
       <c r="S19" t="s" s="2">
-        <v>22</v>
+        <v>197</v>
       </c>
       <c r="T19" t="s" s="2">
         <v>22</v>
@@ -4069,11 +4083,11 @@
         <v>22</v>
       </c>
       <c r="X19" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Y19" s="2"/>
       <c r="Z19" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="AA19" t="s" s="2">
         <v>22</v>
@@ -4091,7 +4105,7 @@
         <v>22</v>
       </c>
       <c r="AF19" t="s" s="2">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="AG19" t="s" s="2">
         <v>89</v>
@@ -4109,21 +4123,21 @@
         <v>22</v>
       </c>
       <c r="AL19" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="AM19" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN19" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
@@ -4146,13 +4160,13 @@
         <v>22</v>
       </c>
       <c r="K20" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="M20" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -4203,7 +4217,7 @@
         <v>22</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>80</v>
@@ -4221,7 +4235,7 @@
         <v>22</v>
       </c>
       <c r="AL20" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM20" t="s" s="2">
         <v>22</v>
@@ -4232,10 +4246,10 @@
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -4258,13 +4272,13 @@
         <v>22</v>
       </c>
       <c r="K21" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L21" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M21" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -4315,7 +4329,7 @@
         <v>22</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG21" t="s" s="2">
         <v>80</v>
@@ -4333,7 +4347,7 @@
         <v>22</v>
       </c>
       <c r="AL21" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM21" t="s" s="2">
         <v>22</v>
@@ -4344,10 +4358,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -4376,7 +4390,7 @@
         <v>136</v>
       </c>
       <c r="M22" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N22" t="s" s="2">
         <v>138</v>
@@ -4429,7 +4443,7 @@
         <v>22</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG22" t="s" s="2">
         <v>80</v>
@@ -4447,7 +4461,7 @@
         <v>22</v>
       </c>
       <c r="AL22" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM22" t="s" s="2">
         <v>22</v>
@@ -4458,14 +4472,14 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" t="s" s="2">
@@ -4487,10 +4501,10 @@
         <v>135</v>
       </c>
       <c r="L23" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M23" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N23" t="s" s="2">
         <v>138</v>
@@ -4545,7 +4559,7 @@
         <v>22</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>80</v>
@@ -4574,10 +4588,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -4600,13 +4614,13 @@
         <v>22</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="L24" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="M24" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -4633,13 +4647,13 @@
         <v>22</v>
       </c>
       <c r="X24" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Y24" t="s" s="2">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Z24" t="s" s="2">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="AA24" t="s" s="2">
         <v>22</v>
@@ -4657,7 +4671,7 @@
         <v>22</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>89</v>
@@ -4675,7 +4689,7 @@
         <v>22</v>
       </c>
       <c r="AL24" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM24" t="s" s="2">
         <v>22</v>
@@ -4686,10 +4700,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -4712,13 +4726,13 @@
         <v>22</v>
       </c>
       <c r="K25" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L25" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="M25" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -4769,7 +4783,7 @@
         <v>22</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>89</v>
@@ -4787,7 +4801,7 @@
         <v>22</v>
       </c>
       <c r="AL25" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM25" t="s" s="2">
         <v>22</v>
@@ -4798,10 +4812,10 @@
     </row>
     <row r="26" hidden="true">
       <c r="A26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="B26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C26" s="2"/>
       <c r="D26" t="s" s="2">
@@ -4824,16 +4838,16 @@
         <v>90</v>
       </c>
       <c r="K26" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L26" t="s" s="2">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="M26" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="N26" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="O26" s="2"/>
       <c r="P26" t="s" s="2">
@@ -4859,11 +4873,11 @@
         <v>22</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y26" s="2"/>
       <c r="Z26" t="s" s="2">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="AA26" t="s" s="2">
         <v>22</v>
@@ -4881,7 +4895,7 @@
         <v>22</v>
       </c>
       <c r="AF26" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="AG26" t="s" s="2">
         <v>80</v>
@@ -4896,24 +4910,24 @@
         <v>101</v>
       </c>
       <c r="AK26" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL26" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="AM26" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="AN26" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="B27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="C27" s="2"/>
       <c r="D27" t="s" s="2">
@@ -4921,7 +4935,7 @@
       </c>
       <c r="E27" s="2"/>
       <c r="F27" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G27" t="s" s="2">
         <v>89</v>
@@ -4936,13 +4950,13 @@
         <v>90</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="M27" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="N27" s="2"/>
       <c r="O27" s="2"/>
@@ -4954,7 +4968,7 @@
         <v>22</v>
       </c>
       <c r="S27" t="s" s="2">
-        <v>22</v>
+        <v>229</v>
       </c>
       <c r="T27" t="s" s="2">
         <v>22</v>
@@ -4969,11 +4983,11 @@
         <v>22</v>
       </c>
       <c r="X27" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y27" s="2"/>
       <c r="Z27" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="AA27" t="s" s="2">
         <v>22</v>
@@ -4991,7 +5005,7 @@
         <v>22</v>
       </c>
       <c r="AF27" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="AG27" t="s" s="2">
         <v>80</v>
@@ -5006,24 +5020,24 @@
         <v>101</v>
       </c>
       <c r="AK27" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="AL27" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM27" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN27" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="B28" t="s" s="2">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C28" s="2"/>
       <c r="D28" t="s" s="2">
@@ -5046,13 +5060,13 @@
         <v>22</v>
       </c>
       <c r="K28" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L28" t="s" s="2">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="M28" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="N28" s="2"/>
       <c r="O28" s="2"/>
@@ -5079,31 +5093,31 @@
         <v>22</v>
       </c>
       <c r="X28" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y28" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="Z28" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="AA28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AB28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AC28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AD28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AE28" t="s" s="2">
+        <v>22</v>
+      </c>
+      <c r="AF28" t="s" s="2">
         <v>232</v>
-      </c>
-      <c r="Z28" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="AA28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AB28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AC28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AD28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AE28" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="AF28" t="s" s="2">
-        <v>230</v>
       </c>
       <c r="AG28" t="s" s="2">
         <v>80</v>
@@ -5121,29 +5135,29 @@
         <v>22</v>
       </c>
       <c r="AL28" t="s" s="2">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="AM28" t="s" s="2">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="AN28" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="B29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C29" s="2"/>
       <c r="D29" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G29" t="s" s="2">
         <v>89</v>
@@ -5158,16 +5172,16 @@
         <v>90</v>
       </c>
       <c r="K29" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="L29" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="M29" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="N29" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="O29" s="2"/>
       <c r="P29" t="s" s="2">
@@ -5217,7 +5231,7 @@
         <v>22</v>
       </c>
       <c r="AF29" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="AG29" t="s" s="2">
         <v>80</v>
@@ -5232,24 +5246,24 @@
         <v>101</v>
       </c>
       <c r="AK29" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="AL29" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="AM29" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="AN29" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C30" s="2"/>
       <c r="D30" t="s" s="2">
@@ -5257,13 +5271,13 @@
       </c>
       <c r="E30" s="2"/>
       <c r="F30" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G30" t="s" s="2">
-        <v>81</v>
+        <v>89</v>
       </c>
       <c r="H30" t="s" s="2">
-        <v>22</v>
+        <v>90</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>22</v>
@@ -5272,13 +5286,13 @@
         <v>90</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="L30" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="M30" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="N30" s="2"/>
       <c r="O30" s="2"/>
@@ -5329,7 +5343,7 @@
         <v>22</v>
       </c>
       <c r="AF30" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="AG30" t="s" s="2">
         <v>80</v>
@@ -5344,28 +5358,28 @@
         <v>101</v>
       </c>
       <c r="AK30" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="AL30" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM30" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="AN30" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C31" s="2"/>
       <c r="D31" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" t="s" s="2">
@@ -5384,13 +5398,13 @@
         <v>22</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="M31" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="N31" s="2"/>
       <c r="O31" s="2"/>
@@ -5441,7 +5455,7 @@
         <v>22</v>
       </c>
       <c r="AF31" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="AG31" t="s" s="2">
         <v>80</v>
@@ -5456,10 +5470,10 @@
         <v>101</v>
       </c>
       <c r="AK31" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL31" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="AM31" t="s" s="2">
         <v>22</v>
@@ -5470,10 +5484,10 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="B32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C32" s="2"/>
       <c r="D32" t="s" s="2">
@@ -5496,13 +5510,13 @@
         <v>90</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="M32" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="N32" s="2"/>
       <c r="O32" s="2"/>
@@ -5541,17 +5555,17 @@
         <v>22</v>
       </c>
       <c r="AB32" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="AC32" s="2"/>
       <c r="AD32" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF32" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG32" t="s" s="2">
         <v>80</v>
@@ -5566,24 +5580,24 @@
         <v>101</v>
       </c>
       <c r="AK32" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL32" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM32" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN32" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="B33" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" t="s" s="2">
@@ -5606,13 +5620,13 @@
         <v>22</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M33" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N33" s="2"/>
       <c r="O33" s="2"/>
@@ -5663,7 +5677,7 @@
         <v>22</v>
       </c>
       <c r="AF33" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG33" t="s" s="2">
         <v>80</v>
@@ -5681,7 +5695,7 @@
         <v>22</v>
       </c>
       <c r="AL33" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM33" t="s" s="2">
         <v>22</v>
@@ -5692,10 +5706,10 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="B34" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" t="s" s="2">
@@ -5724,7 +5738,7 @@
         <v>136</v>
       </c>
       <c r="M34" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N34" t="s" s="2">
         <v>138</v>
@@ -5777,7 +5791,7 @@
         <v>22</v>
       </c>
       <c r="AF34" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG34" t="s" s="2">
         <v>80</v>
@@ -5795,7 +5809,7 @@
         <v>22</v>
       </c>
       <c r="AL34" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM34" t="s" s="2">
         <v>22</v>
@@ -5806,14 +5820,14 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="B35" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C35" s="2"/>
       <c r="D35" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" t="s" s="2">
@@ -5835,10 +5849,10 @@
         <v>135</v>
       </c>
       <c r="L35" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M35" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N35" t="s" s="2">
         <v>138</v>
@@ -5893,7 +5907,7 @@
         <v>22</v>
       </c>
       <c r="AF35" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG35" t="s" s="2">
         <v>80</v>
@@ -5922,10 +5936,10 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C36" s="2"/>
       <c r="D36" t="s" s="2">
@@ -5948,16 +5962,16 @@
         <v>90</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L36" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M36" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N36" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O36" s="2"/>
       <c r="P36" t="s" s="2">
@@ -5983,11 +5997,11 @@
         <v>22</v>
       </c>
       <c r="X36" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y36" s="2"/>
       <c r="Z36" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="AA36" t="s" s="2">
         <v>22</v>
@@ -6005,7 +6019,7 @@
         <v>22</v>
       </c>
       <c r="AF36" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG36" t="s" s="2">
         <v>80</v>
@@ -6020,24 +6034,24 @@
         <v>101</v>
       </c>
       <c r="AK36" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL36" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM36" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN36" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" t="s" s="2">
@@ -6060,13 +6074,13 @@
         <v>22</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L37" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M37" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N37" s="2"/>
       <c r="O37" s="2"/>
@@ -6117,7 +6131,7 @@
         <v>22</v>
       </c>
       <c r="AF37" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG37" t="s" s="2">
         <v>80</v>
@@ -6135,21 +6149,21 @@
         <v>22</v>
       </c>
       <c r="AL37" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM37" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN37" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="B38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C38" s="2"/>
       <c r="D38" t="s" s="2">
@@ -6172,13 +6186,13 @@
         <v>90</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M38" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N38" s="2"/>
       <c r="O38" s="2"/>
@@ -6229,7 +6243,7 @@
         <v>22</v>
       </c>
       <c r="AF38" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG38" t="s" s="2">
         <v>80</v>
@@ -6244,27 +6258,27 @@
         <v>101</v>
       </c>
       <c r="AK38" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL38" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM38" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN38" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D39" t="s" s="2">
         <v>22</v>
@@ -6286,13 +6300,13 @@
         <v>90</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="M39" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="N39" s="2"/>
       <c r="O39" s="2"/>
@@ -6343,7 +6357,7 @@
         <v>22</v>
       </c>
       <c r="AF39" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="AG39" t="s" s="2">
         <v>80</v>
@@ -6358,24 +6372,24 @@
         <v>101</v>
       </c>
       <c r="AK39" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="AL39" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="AM39" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN39" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" t="s" s="2">
@@ -6398,13 +6412,13 @@
         <v>22</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M40" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N40" s="2"/>
       <c r="O40" s="2"/>
@@ -6455,7 +6469,7 @@
         <v>22</v>
       </c>
       <c r="AF40" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG40" t="s" s="2">
         <v>80</v>
@@ -6473,7 +6487,7 @@
         <v>22</v>
       </c>
       <c r="AL40" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM40" t="s" s="2">
         <v>22</v>
@@ -6484,10 +6498,10 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="B41" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="C41" s="2"/>
       <c r="D41" t="s" s="2">
@@ -6516,7 +6530,7 @@
         <v>136</v>
       </c>
       <c r="M41" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N41" t="s" s="2">
         <v>138</v>
@@ -6569,7 +6583,7 @@
         <v>22</v>
       </c>
       <c r="AF41" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG41" t="s" s="2">
         <v>80</v>
@@ -6587,7 +6601,7 @@
         <v>22</v>
       </c>
       <c r="AL41" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM41" t="s" s="2">
         <v>22</v>
@@ -6598,14 +6612,14 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B42" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C42" s="2"/>
       <c r="D42" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E42" s="2"/>
       <c r="F42" t="s" s="2">
@@ -6627,10 +6641,10 @@
         <v>135</v>
       </c>
       <c r="L42" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M42" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N42" t="s" s="2">
         <v>138</v>
@@ -6685,7 +6699,7 @@
         <v>22</v>
       </c>
       <c r="AF42" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG42" t="s" s="2">
         <v>80</v>
@@ -6714,10 +6728,10 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="B43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C43" s="2"/>
       <c r="D43" t="s" s="2">
@@ -6740,16 +6754,16 @@
         <v>90</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L43" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="M43" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="N43" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="O43" s="2"/>
       <c r="P43" t="s" s="2">
@@ -6760,7 +6774,7 @@
         <v>22</v>
       </c>
       <c r="S43" t="s" s="2">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="T43" t="s" s="2">
         <v>22</v>
@@ -6775,11 +6789,11 @@
         <v>22</v>
       </c>
       <c r="X43" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Y43" s="2"/>
       <c r="Z43" t="s" s="2">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="AA43" t="s" s="2">
         <v>22</v>
@@ -6797,7 +6811,7 @@
         <v>22</v>
       </c>
       <c r="AF43" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="AG43" t="s" s="2">
         <v>80</v>
@@ -6812,24 +6826,24 @@
         <v>101</v>
       </c>
       <c r="AK43" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="AL43" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="AM43" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN43" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="B44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" t="s" s="2">
@@ -6852,13 +6866,13 @@
         <v>22</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="M44" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="N44" s="2"/>
       <c r="O44" s="2"/>
@@ -6909,7 +6923,7 @@
         <v>22</v>
       </c>
       <c r="AF44" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="AG44" t="s" s="2">
         <v>80</v>
@@ -6927,21 +6941,21 @@
         <v>22</v>
       </c>
       <c r="AL44" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM44" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN44" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" t="s" s="2">
@@ -6964,13 +6978,13 @@
         <v>90</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="M45" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="N45" s="2"/>
       <c r="O45" s="2"/>
@@ -7021,7 +7035,7 @@
         <v>22</v>
       </c>
       <c r="AF45" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="AG45" t="s" s="2">
         <v>80</v>
@@ -7036,24 +7050,24 @@
         <v>101</v>
       </c>
       <c r="AK45" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL45" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM45" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="AN45" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B46" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" t="s" s="2">
@@ -7076,13 +7090,13 @@
         <v>90</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>308</v>
+        <v>310</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" s="2"/>
@@ -7133,7 +7147,7 @@
         <v>22</v>
       </c>
       <c r="AF46" t="s" s="2">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="AG46" t="s" s="2">
         <v>80</v>
@@ -7148,24 +7162,24 @@
         <v>101</v>
       </c>
       <c r="AK46" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="AL46" t="s" s="2">
-        <v>310</v>
+        <v>312</v>
       </c>
       <c r="AM46" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN46" t="s" s="2">
-        <v>311</v>
+        <v>313</v>
       </c>
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="B47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" t="s" s="2">
@@ -7188,16 +7202,16 @@
         <v>22</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="N47" t="s" s="2">
-        <v>314</v>
+        <v>316</v>
       </c>
       <c r="O47" s="2"/>
       <c r="P47" t="s" s="2">
@@ -7247,7 +7261,7 @@
         <v>22</v>
       </c>
       <c r="AF47" t="s" s="2">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="AG47" t="s" s="2">
         <v>80</v>
@@ -7262,24 +7276,24 @@
         <v>101</v>
       </c>
       <c r="AK47" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL47" t="s" s="2">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="AM47" t="s" s="2">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="AN47" t="s" s="2">
-        <v>318</v>
+        <v>320</v>
       </c>
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B48" t="s" s="2">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" t="s" s="2">
@@ -7302,13 +7316,13 @@
         <v>22</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" s="2"/>
@@ -7359,7 +7373,7 @@
         <v>22</v>
       </c>
       <c r="AF48" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG48" t="s" s="2">
         <v>80</v>
@@ -7377,7 +7391,7 @@
         <v>22</v>
       </c>
       <c r="AL48" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM48" t="s" s="2">
         <v>22</v>
@@ -7388,10 +7402,10 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="B49" t="s" s="2">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" t="s" s="2">
@@ -7420,7 +7434,7 @@
         <v>136</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N49" t="s" s="2">
         <v>138</v>
@@ -7461,19 +7475,19 @@
         <v>22</v>
       </c>
       <c r="AB49" t="s" s="2">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="AC49" t="s" s="2">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="AD49" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="AF49" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG49" t="s" s="2">
         <v>80</v>
@@ -7491,7 +7505,7 @@
         <v>22</v>
       </c>
       <c r="AL49" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM49" t="s" s="2">
         <v>22</v>
@@ -7502,10 +7516,10 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B50" t="s" s="2">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="C50" s="2"/>
       <c r="D50" t="s" s="2">
@@ -7528,16 +7542,16 @@
         <v>90</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="N50" t="s" s="2">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="O50" s="2"/>
       <c r="P50" t="s" s="2">
@@ -7587,7 +7601,7 @@
         <v>22</v>
       </c>
       <c r="AF50" t="s" s="2">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="AG50" t="s" s="2">
         <v>80</v>
@@ -7596,7 +7610,7 @@
         <v>89</v>
       </c>
       <c r="AI50" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AJ50" t="s" s="2">
         <v>101</v>
@@ -7605,21 +7619,21 @@
         <v>22</v>
       </c>
       <c r="AL50" t="s" s="2">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="AM50" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN50" t="s" s="2">
-        <v>331</v>
+        <v>333</v>
       </c>
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="B51" t="s" s="2">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="C51" s="2"/>
       <c r="D51" t="s" s="2">
@@ -7642,23 +7656,23 @@
         <v>90</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="N51" t="s" s="2">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="O51" s="2"/>
       <c r="P51" t="s" s="2">
         <v>22</v>
       </c>
       <c r="Q51" t="s" s="2">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="R51" t="s" s="2">
         <v>22</v>
@@ -7703,7 +7717,7 @@
         <v>22</v>
       </c>
       <c r="AF51" t="s" s="2">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="AG51" t="s" s="2">
         <v>80</v>
@@ -7712,7 +7726,7 @@
         <v>89</v>
       </c>
       <c r="AI51" t="s" s="2">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="AJ51" t="s" s="2">
         <v>101</v>
@@ -7721,21 +7735,21 @@
         <v>22</v>
       </c>
       <c r="AL51" t="s" s="2">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="AM51" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN51" t="s" s="2">
-        <v>339</v>
+        <v>341</v>
       </c>
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="B52" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="C52" s="2"/>
       <c r="D52" t="s" s="2">
@@ -7758,16 +7772,16 @@
         <v>22</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="M52" t="s" s="2">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="N52" t="s" s="2">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="O52" s="2"/>
       <c r="P52" t="s" s="2">
@@ -7817,7 +7831,7 @@
         <v>22</v>
       </c>
       <c r="AF52" t="s" s="2">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="AG52" t="s" s="2">
         <v>80</v>
@@ -7832,28 +7846,28 @@
         <v>101</v>
       </c>
       <c r="AK52" t="s" s="2">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="AL52" t="s" s="2">
-        <v>344</v>
+        <v>346</v>
       </c>
       <c r="AM52" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN52" t="s" s="2">
-        <v>345</v>
+        <v>347</v>
       </c>
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="B53" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C53" s="2"/>
       <c r="D53" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E53" s="2"/>
       <c r="F53" t="s" s="2">
@@ -7872,16 +7886,16 @@
         <v>90</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L53" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="M53" t="s" s="2">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="N53" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O53" s="2"/>
       <c r="P53" t="s" s="2">
@@ -7910,10 +7924,10 @@
         <v>113</v>
       </c>
       <c r="Y53" t="s" s="2">
-        <v>350</v>
+        <v>352</v>
       </c>
       <c r="Z53" t="s" s="2">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="AA53" t="s" s="2">
         <v>22</v>
@@ -7931,7 +7945,7 @@
         <v>22</v>
       </c>
       <c r="AF53" t="s" s="2">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="AG53" t="s" s="2">
         <v>80</v>
@@ -7946,28 +7960,28 @@
         <v>101</v>
       </c>
       <c r="AK53" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AL53" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AM53" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AN53" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="B54" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="C54" s="2"/>
       <c r="D54" t="s" s="2">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="E54" s="2"/>
       <c r="F54" t="s" s="2">
@@ -7986,16 +8000,16 @@
         <v>90</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="L54" t="s" s="2">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="M54" t="s" s="2">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="N54" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O54" s="2"/>
       <c r="P54" t="s" s="2">
@@ -8045,7 +8059,7 @@
         <v>22</v>
       </c>
       <c r="AF54" t="s" s="2">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="AG54" t="s" s="2">
         <v>80</v>
@@ -8060,24 +8074,24 @@
         <v>101</v>
       </c>
       <c r="AK54" t="s" s="2">
-        <v>352</v>
+        <v>354</v>
       </c>
       <c r="AL54" t="s" s="2">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AM54" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AN54" t="s" s="2">
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="B55" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="C55" s="2"/>
       <c r="D55" t="s" s="2">
@@ -8100,13 +8114,13 @@
         <v>90</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L55" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="M55" t="s" s="2">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="N55" s="2"/>
       <c r="O55" s="2"/>
@@ -8157,7 +8171,7 @@
         <v>22</v>
       </c>
       <c r="AF55" t="s" s="2">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="AG55" t="s" s="2">
         <v>80</v>
@@ -8175,7 +8189,7 @@
         <v>22</v>
       </c>
       <c r="AL55" t="s" s="2">
-        <v>362</v>
+        <v>364</v>
       </c>
       <c r="AM55" t="s" s="2">
         <v>22</v>
@@ -8186,10 +8200,10 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>363</v>
+        <v>365</v>
       </c>
       <c r="C56" s="2"/>
       <c r="D56" t="s" s="2">
@@ -8212,13 +8226,13 @@
         <v>22</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M56" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N56" s="2"/>
       <c r="O56" s="2"/>
@@ -8269,7 +8283,7 @@
         <v>22</v>
       </c>
       <c r="AF56" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG56" t="s" s="2">
         <v>80</v>
@@ -8287,7 +8301,7 @@
         <v>22</v>
       </c>
       <c r="AL56" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM56" t="s" s="2">
         <v>22</v>
@@ -8298,10 +8312,10 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B57" t="s" s="2">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C57" s="2"/>
       <c r="D57" t="s" s="2">
@@ -8330,7 +8344,7 @@
         <v>136</v>
       </c>
       <c r="M57" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N57" t="s" s="2">
         <v>138</v>
@@ -8383,7 +8397,7 @@
         <v>22</v>
       </c>
       <c r="AF57" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG57" t="s" s="2">
         <v>80</v>
@@ -8401,7 +8415,7 @@
         <v>22</v>
       </c>
       <c r="AL57" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM57" t="s" s="2">
         <v>22</v>
@@ -8412,14 +8426,14 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="B58" t="s" s="2">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="C58" s="2"/>
       <c r="D58" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E58" s="2"/>
       <c r="F58" t="s" s="2">
@@ -8441,10 +8455,10 @@
         <v>135</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M58" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N58" t="s" s="2">
         <v>138</v>
@@ -8499,7 +8513,7 @@
         <v>22</v>
       </c>
       <c r="AF58" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG58" t="s" s="2">
         <v>80</v>
@@ -8528,14 +8542,14 @@
     </row>
     <row r="59" hidden="true">
       <c r="A59" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B59" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="C59" s="2"/>
       <c r="D59" t="s" s="2">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="E59" s="2"/>
       <c r="F59" t="s" s="2">
@@ -8554,16 +8568,16 @@
         <v>90</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="L59" t="s" s="2">
-        <v>369</v>
+        <v>371</v>
       </c>
       <c r="M59" t="s" s="2">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="N59" t="s" s="2">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="O59" s="2"/>
       <c r="P59" t="s" s="2">
@@ -8613,7 +8627,7 @@
         <v>22</v>
       </c>
       <c r="AF59" t="s" s="2">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="AG59" t="s" s="2">
         <v>89</v>
@@ -8628,24 +8642,24 @@
         <v>101</v>
       </c>
       <c r="AK59" t="s" s="2">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="AL59" t="s" s="2">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="AM59" t="s" s="2">
-        <v>354</v>
+        <v>356</v>
       </c>
       <c r="AN59" t="s" s="2">
-        <v>373</v>
+        <v>375</v>
       </c>
     </row>
     <row r="60" hidden="true">
       <c r="A60" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="B60" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="C60" s="2"/>
       <c r="D60" t="s" s="2">
@@ -8668,13 +8682,13 @@
         <v>22</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L60" t="s" s="2">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="M60" t="s" s="2">
-        <v>376</v>
+        <v>378</v>
       </c>
       <c r="N60" s="2"/>
       <c r="O60" s="2"/>
@@ -8704,10 +8718,10 @@
         <v>113</v>
       </c>
       <c r="Y60" t="s" s="2">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="Z60" t="s" s="2">
-        <v>378</v>
+        <v>380</v>
       </c>
       <c r="AA60" t="s" s="2">
         <v>22</v>
@@ -8725,7 +8739,7 @@
         <v>22</v>
       </c>
       <c r="AF60" t="s" s="2">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="AG60" t="s" s="2">
         <v>80</v>
@@ -8743,7 +8757,7 @@
         <v>22</v>
       </c>
       <c r="AL60" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM60" t="s" s="2">
         <v>22</v>
@@ -8754,10 +8768,10 @@
     </row>
     <row r="61" hidden="true">
       <c r="A61" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B61" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="C61" s="2"/>
       <c r="D61" t="s" s="2">
@@ -8780,13 +8794,13 @@
         <v>22</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="L61" t="s" s="2">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="M61" t="s" s="2">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="N61" s="2"/>
       <c r="O61" s="2"/>
@@ -8837,7 +8851,7 @@
         <v>22</v>
       </c>
       <c r="AF61" t="s" s="2">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="AG61" t="s" s="2">
         <v>80</v>
@@ -8855,7 +8869,7 @@
         <v>22</v>
       </c>
       <c r="AL61" t="s" s="2">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="AM61" t="s" s="2">
         <v>22</v>
@@ -8866,10 +8880,10 @@
     </row>
     <row r="62" hidden="true">
       <c r="A62" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="B62" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="C62" s="2"/>
       <c r="D62" t="s" s="2">
@@ -8892,16 +8906,16 @@
         <v>22</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="L62" t="s" s="2">
-        <v>386</v>
+        <v>388</v>
       </c>
       <c r="M62" t="s" s="2">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="N62" t="s" s="2">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="O62" s="2"/>
       <c r="P62" t="s" s="2">
@@ -8951,7 +8965,7 @@
         <v>22</v>
       </c>
       <c r="AF62" t="s" s="2">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="AG62" t="s" s="2">
         <v>80</v>
@@ -8969,7 +8983,7 @@
         <v>22</v>
       </c>
       <c r="AL62" t="s" s="2">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="AM62" t="s" s="2">
         <v>22</v>
@@ -8980,10 +8994,10 @@
     </row>
     <row r="63" hidden="true">
       <c r="A63" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B63" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="C63" s="2"/>
       <c r="D63" t="s" s="2">
@@ -9006,16 +9020,16 @@
         <v>22</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L63" t="s" s="2">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="M63" t="s" s="2">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="N63" t="s" s="2">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="O63" s="2"/>
       <c r="P63" t="s" s="2">
@@ -9065,7 +9079,7 @@
         <v>22</v>
       </c>
       <c r="AF63" t="s" s="2">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="AG63" t="s" s="2">
         <v>80</v>
@@ -9083,7 +9097,7 @@
         <v>22</v>
       </c>
       <c r="AL63" t="s" s="2">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="AM63" t="s" s="2">
         <v>22</v>
@@ -9094,10 +9108,10 @@
     </row>
     <row r="64" hidden="true">
       <c r="A64" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="B64" t="s" s="2">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="C64" s="2"/>
       <c r="D64" t="s" s="2">
@@ -9120,13 +9134,13 @@
         <v>22</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L64" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M64" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N64" s="2"/>
       <c r="O64" s="2"/>
@@ -9177,7 +9191,7 @@
         <v>22</v>
       </c>
       <c r="AF64" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG64" t="s" s="2">
         <v>80</v>
@@ -9195,7 +9209,7 @@
         <v>22</v>
       </c>
       <c r="AL64" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM64" t="s" s="2">
         <v>22</v>
@@ -9206,10 +9220,10 @@
     </row>
     <row r="65" hidden="true">
       <c r="A65" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B65" t="s" s="2">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="C65" s="2"/>
       <c r="D65" t="s" s="2">
@@ -9238,7 +9252,7 @@
         <v>136</v>
       </c>
       <c r="M65" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N65" t="s" s="2">
         <v>138</v>
@@ -9291,7 +9305,7 @@
         <v>22</v>
       </c>
       <c r="AF65" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG65" t="s" s="2">
         <v>80</v>
@@ -9309,7 +9323,7 @@
         <v>22</v>
       </c>
       <c r="AL65" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM65" t="s" s="2">
         <v>22</v>
@@ -9320,14 +9334,14 @@
     </row>
     <row r="66" hidden="true">
       <c r="A66" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="B66" t="s" s="2">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C66" s="2"/>
       <c r="D66" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E66" s="2"/>
       <c r="F66" t="s" s="2">
@@ -9349,10 +9363,10 @@
         <v>135</v>
       </c>
       <c r="L66" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M66" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N66" t="s" s="2">
         <v>138</v>
@@ -9407,7 +9421,7 @@
         <v>22</v>
       </c>
       <c r="AF66" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG66" t="s" s="2">
         <v>80</v>
@@ -9436,10 +9450,10 @@
     </row>
     <row r="67" hidden="true">
       <c r="A67" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="B67" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="C67" s="2"/>
       <c r="D67" t="s" s="2">
@@ -9465,10 +9479,10 @@
         <v>147</v>
       </c>
       <c r="L67" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="M67" t="s" s="2">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="N67" s="2"/>
       <c r="O67" s="2"/>
@@ -9519,7 +9533,7 @@
         <v>22</v>
       </c>
       <c r="AF67" t="s" s="2">
-        <v>398</v>
+        <v>400</v>
       </c>
       <c r="AG67" t="s" s="2">
         <v>80</v>
@@ -9543,15 +9557,15 @@
         <v>22</v>
       </c>
       <c r="AN67" t="s" s="2">
-        <v>401</v>
+        <v>403</v>
       </c>
     </row>
     <row r="68" hidden="true">
       <c r="A68" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="C68" s="2"/>
       <c r="D68" t="s" s="2">
@@ -9574,13 +9588,13 @@
         <v>22</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L68" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="N68" s="2"/>
       <c r="O68" s="2"/>
@@ -9631,7 +9645,7 @@
         <v>22</v>
       </c>
       <c r="AF68" t="s" s="2">
-        <v>402</v>
+        <v>404</v>
       </c>
       <c r="AG68" t="s" s="2">
         <v>80</v>
@@ -9649,7 +9663,7 @@
         <v>22</v>
       </c>
       <c r="AL68" t="s" s="2">
-        <v>406</v>
+        <v>408</v>
       </c>
       <c r="AM68" t="s" s="2">
         <v>22</v>
@@ -9660,10 +9674,10 @@
     </row>
     <row r="69" hidden="true">
       <c r="A69" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="C69" s="2"/>
       <c r="D69" t="s" s="2">
@@ -9686,13 +9700,13 @@
         <v>22</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L69" t="s" s="2">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="M69" t="s" s="2">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="N69" s="2"/>
       <c r="O69" s="2"/>
@@ -9722,10 +9736,10 @@
         <v>113</v>
       </c>
       <c r="Y69" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="Z69" t="s" s="2">
-        <v>411</v>
+        <v>413</v>
       </c>
       <c r="AA69" t="s" s="2">
         <v>22</v>
@@ -9743,7 +9757,7 @@
         <v>22</v>
       </c>
       <c r="AF69" t="s" s="2">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="AG69" t="s" s="2">
         <v>80</v>
@@ -9761,21 +9775,21 @@
         <v>22</v>
       </c>
       <c r="AL69" t="s" s="2">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="AM69" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN69" t="s" s="2">
-        <v>413</v>
+        <v>415</v>
       </c>
     </row>
     <row r="70" hidden="true">
       <c r="A70" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="C70" s="2"/>
       <c r="D70" t="s" s="2">
@@ -9798,13 +9812,13 @@
         <v>22</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L70" t="s" s="2">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="M70" t="s" s="2">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="N70" s="2"/>
       <c r="O70" s="2"/>
@@ -9831,13 +9845,13 @@
         <v>22</v>
       </c>
       <c r="X70" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y70" t="s" s="2">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Z70" t="s" s="2">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="AA70" t="s" s="2">
         <v>22</v>
@@ -9855,7 +9869,7 @@
         <v>22</v>
       </c>
       <c r="AF70" t="s" s="2">
-        <v>414</v>
+        <v>416</v>
       </c>
       <c r="AG70" t="s" s="2">
         <v>80</v>
@@ -9873,21 +9887,21 @@
         <v>22</v>
       </c>
       <c r="AL70" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM70" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN70" t="s" s="2">
-        <v>419</v>
+        <v>421</v>
       </c>
     </row>
     <row r="71" hidden="true">
       <c r="A71" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="C71" s="2"/>
       <c r="D71" t="s" s="2">
@@ -9910,19 +9924,19 @@
         <v>22</v>
       </c>
       <c r="K71" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L71" t="s" s="2">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="M71" t="s" s="2">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="N71" t="s" s="2">
-        <v>423</v>
+        <v>425</v>
       </c>
       <c r="O71" t="s" s="2">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="P71" t="s" s="2">
         <v>22</v>
@@ -9947,13 +9961,13 @@
         <v>22</v>
       </c>
       <c r="X71" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y71" t="s" s="2">
-        <v>425</v>
+        <v>427</v>
       </c>
       <c r="Z71" t="s" s="2">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="AA71" t="s" s="2">
         <v>22</v>
@@ -9971,7 +9985,7 @@
         <v>22</v>
       </c>
       <c r="AF71" t="s" s="2">
-        <v>420</v>
+        <v>422</v>
       </c>
       <c r="AG71" t="s" s="2">
         <v>80</v>
@@ -9989,21 +10003,21 @@
         <v>22</v>
       </c>
       <c r="AL71" t="s" s="2">
-        <v>427</v>
+        <v>429</v>
       </c>
       <c r="AM71" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN71" t="s" s="2">
-        <v>428</v>
+        <v>430</v>
       </c>
     </row>
     <row r="72" hidden="true">
       <c r="A72" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C72" s="2"/>
       <c r="D72" t="s" s="2">
@@ -10026,13 +10040,13 @@
         <v>22</v>
       </c>
       <c r="K72" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L72" t="s" s="2">
-        <v>430</v>
+        <v>432</v>
       </c>
       <c r="M72" t="s" s="2">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="N72" s="2"/>
       <c r="O72" s="2"/>
@@ -10062,10 +10076,10 @@
         <v>113</v>
       </c>
       <c r="Y72" t="s" s="2">
-        <v>432</v>
+        <v>434</v>
       </c>
       <c r="Z72" t="s" s="2">
-        <v>433</v>
+        <v>435</v>
       </c>
       <c r="AA72" t="s" s="2">
         <v>22</v>
@@ -10083,7 +10097,7 @@
         <v>22</v>
       </c>
       <c r="AF72" t="s" s="2">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="AG72" t="s" s="2">
         <v>80</v>
@@ -10101,21 +10115,21 @@
         <v>22</v>
       </c>
       <c r="AL72" t="s" s="2">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="AM72" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN72" t="s" s="2">
-        <v>435</v>
+        <v>437</v>
       </c>
     </row>
     <row r="73" hidden="true">
       <c r="A73" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="C73" s="2"/>
       <c r="D73" t="s" s="2">
@@ -10138,13 +10152,13 @@
         <v>22</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>438</v>
+        <v>440</v>
       </c>
       <c r="N73" s="2"/>
       <c r="O73" s="2"/>
@@ -10174,10 +10188,10 @@
         <v>113</v>
       </c>
       <c r="Y73" t="s" s="2">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="Z73" t="s" s="2">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="AA73" t="s" s="2">
         <v>22</v>
@@ -10195,7 +10209,7 @@
         <v>22</v>
       </c>
       <c r="AF73" t="s" s="2">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="AG73" t="s" s="2">
         <v>80</v>
@@ -10213,21 +10227,21 @@
         <v>22</v>
       </c>
       <c r="AL73" t="s" s="2">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="AM73" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN73" t="s" s="2">
-        <v>442</v>
+        <v>444</v>
       </c>
     </row>
     <row r="74" hidden="true">
       <c r="A74" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="C74" s="2"/>
       <c r="D74" t="s" s="2">
@@ -10250,13 +10264,13 @@
         <v>22</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="L74" t="s" s="2">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>445</v>
+        <v>447</v>
       </c>
       <c r="N74" s="2"/>
       <c r="O74" s="2"/>
@@ -10307,7 +10321,7 @@
         <v>22</v>
       </c>
       <c r="AF74" t="s" s="2">
-        <v>443</v>
+        <v>445</v>
       </c>
       <c r="AG74" t="s" s="2">
         <v>80</v>
@@ -10325,21 +10339,21 @@
         <v>22</v>
       </c>
       <c r="AL74" t="s" s="2">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="AM74" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN74" t="s" s="2">
-        <v>447</v>
+        <v>449</v>
       </c>
     </row>
     <row r="75" hidden="true">
       <c r="A75" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="C75" s="2"/>
       <c r="D75" t="s" s="2">
@@ -10362,13 +10376,13 @@
         <v>22</v>
       </c>
       <c r="K75" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L75" t="s" s="2">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="N75" s="2"/>
       <c r="O75" s="2"/>
@@ -10395,13 +10409,13 @@
         <v>22</v>
       </c>
       <c r="X75" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y75" t="s" s="2">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="Z75" t="s" s="2">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="AA75" t="s" s="2">
         <v>22</v>
@@ -10419,7 +10433,7 @@
         <v>22</v>
       </c>
       <c r="AF75" t="s" s="2">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="AG75" t="s" s="2">
         <v>80</v>
@@ -10437,21 +10451,21 @@
         <v>22</v>
       </c>
       <c r="AL75" t="s" s="2">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="AM75" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN75" t="s" s="2">
-        <v>454</v>
+        <v>456</v>
       </c>
     </row>
     <row r="76" hidden="true">
       <c r="A76" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" t="s" s="2">
@@ -10474,16 +10488,16 @@
         <v>22</v>
       </c>
       <c r="K76" t="s" s="2">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="O76" s="2"/>
       <c r="P76" t="s" s="2">
@@ -10533,7 +10547,7 @@
         <v>22</v>
       </c>
       <c r="AF76" t="s" s="2">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="AG76" t="s" s="2">
         <v>80</v>
@@ -10551,7 +10565,7 @@
         <v>22</v>
       </c>
       <c r="AL76" t="s" s="2">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="AM76" t="s" s="2">
         <v>22</v>
@@ -10562,10 +10576,10 @@
     </row>
     <row r="77" hidden="true">
       <c r="A77" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="C77" s="2"/>
       <c r="D77" t="s" s="2">
@@ -10588,13 +10602,13 @@
         <v>22</v>
       </c>
       <c r="K77" t="s" s="2">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="L77" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="N77" s="2"/>
       <c r="O77" s="2"/>
@@ -10645,7 +10659,7 @@
         <v>22</v>
       </c>
       <c r="AF77" t="s" s="2">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="AG77" t="s" s="2">
         <v>80</v>
@@ -10663,7 +10677,7 @@
         <v>22</v>
       </c>
       <c r="AL77" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM77" t="s" s="2">
         <v>22</v>
@@ -10674,10 +10688,10 @@
     </row>
     <row r="78" hidden="true">
       <c r="A78" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="C78" s="2"/>
       <c r="D78" t="s" s="2">
@@ -10706,7 +10720,7 @@
         <v>136</v>
       </c>
       <c r="M78" t="s" s="2">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="N78" t="s" s="2">
         <v>138</v>
@@ -10759,7 +10773,7 @@
         <v>22</v>
       </c>
       <c r="AF78" t="s" s="2">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="AG78" t="s" s="2">
         <v>80</v>
@@ -10777,7 +10791,7 @@
         <v>22</v>
       </c>
       <c r="AL78" t="s" s="2">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="AM78" t="s" s="2">
         <v>22</v>
@@ -10788,14 +10802,14 @@
     </row>
     <row r="79" hidden="true">
       <c r="A79" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="C79" s="2"/>
       <c r="D79" t="s" s="2">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E79" s="2"/>
       <c r="F79" t="s" s="2">
@@ -10817,10 +10831,10 @@
         <v>135</v>
       </c>
       <c r="L79" t="s" s="2">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="M79" t="s" s="2">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="N79" t="s" s="2">
         <v>138</v>
@@ -10875,7 +10889,7 @@
         <v>22</v>
       </c>
       <c r="AF79" t="s" s="2">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="AG79" t="s" s="2">
         <v>80</v>
@@ -10904,10 +10918,10 @@
     </row>
     <row r="80" hidden="true">
       <c r="A80" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="C80" s="2"/>
       <c r="D80" t="s" s="2">
@@ -10930,13 +10944,13 @@
         <v>22</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="L80" t="s" s="2">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="M80" t="s" s="2">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="N80" s="2"/>
       <c r="O80" s="2"/>
@@ -10987,7 +11001,7 @@
         <v>22</v>
       </c>
       <c r="AF80" t="s" s="2">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="AG80" t="s" s="2">
         <v>89</v>
@@ -11002,24 +11016,24 @@
         <v>101</v>
       </c>
       <c r="AK80" t="s" s="2">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="AL80" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="AM80" t="s" s="2">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="AN80" t="s" s="2">
-        <v>469</v>
+        <v>471</v>
       </c>
     </row>
     <row r="81" hidden="true">
       <c r="A81" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="C81" s="2"/>
       <c r="D81" t="s" s="2">
@@ -11045,13 +11059,13 @@
         <v>109</v>
       </c>
       <c r="L81" t="s" s="2">
-        <v>471</v>
+        <v>473</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" t="s" s="2">
@@ -11077,13 +11091,13 @@
         <v>22</v>
       </c>
       <c r="X81" t="s" s="2">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="Y81" t="s" s="2">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="Z81" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="AA81" t="s" s="2">
         <v>22</v>
@@ -11101,7 +11115,7 @@
         <v>22</v>
       </c>
       <c r="AF81" t="s" s="2">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="AG81" t="s" s="2">
         <v>80</v>
@@ -11119,7 +11133,7 @@
         <v>22</v>
       </c>
       <c r="AL81" t="s" s="2">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="AM81" t="s" s="2">
         <v>22</v>
@@ -11130,10 +11144,10 @@
     </row>
     <row r="82" hidden="true">
       <c r="A82" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="C82" s="2"/>
       <c r="D82" t="s" s="2">
@@ -11156,16 +11170,16 @@
         <v>22</v>
       </c>
       <c r="K82" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="L82" t="s" s="2">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" t="s" s="2">
@@ -11191,13 +11205,13 @@
         <v>22</v>
       </c>
       <c r="X82" t="s" s="2">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Y82" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="Z82" t="s" s="2">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="AA82" t="s" s="2">
         <v>22</v>
@@ -11215,7 +11229,7 @@
         <v>22</v>
       </c>
       <c r="AF82" t="s" s="2">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="AG82" t="s" s="2">
         <v>80</v>
@@ -11244,10 +11258,10 @@
     </row>
     <row r="83" hidden="true">
       <c r="A83" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" t="s" s="2">
@@ -11270,13 +11284,13 @@
         <v>22</v>
       </c>
       <c r="K83" t="s" s="2">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="L83" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="N83" s="2"/>
       <c r="O83" s="2"/>
@@ -11327,7 +11341,7 @@
         <v>22</v>
       </c>
       <c r="AF83" t="s" s="2">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="AG83" t="s" s="2">
         <v>80</v>
@@ -11345,7 +11359,7 @@
         <v>22</v>
       </c>
       <c r="AL83" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AM83" t="s" s="2">
         <v>22</v>
@@ -11356,10 +11370,10 @@
     </row>
     <row r="84" hidden="true">
       <c r="A84" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="C84" s="2"/>
       <c r="D84" t="s" s="2">
@@ -11367,7 +11381,7 @@
       </c>
       <c r="E84" s="2"/>
       <c r="F84" t="s" s="2">
-        <v>80</v>
+        <v>89</v>
       </c>
       <c r="G84" t="s" s="2">
         <v>89</v>
@@ -11382,13 +11396,13 @@
         <v>22</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="L84" t="s" s="2">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="M84" t="s" s="2">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="N84" s="2"/>
       <c r="O84" s="2"/>
@@ -11439,7 +11453,7 @@
         <v>22</v>
       </c>
       <c r="AF84" t="s" s="2">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="AG84" t="s" s="2">
         <v>80</v>
@@ -11454,24 +11468,24 @@
         <v>101</v>
       </c>
       <c r="AK84" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="AL84" t="s" s="2">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="AM84" t="s" s="2">
         <v>22</v>
       </c>
       <c r="AN84" t="s" s="2">
-        <v>491</v>
+        <v>493</v>
       </c>
     </row>
     <row r="85" hidden="true">
       <c r="A85" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="C85" s="2"/>
       <c r="D85" t="s" s="2">
@@ -11494,16 +11508,16 @@
         <v>22</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>493</v>
+        <v>495</v>
       </c>
       <c r="L85" t="s" s="2">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="M85" t="s" s="2">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="N85" t="s" s="2">
-        <v>496</v>
+        <v>498</v>
       </c>
       <c r="O85" s="2"/>
       <c r="P85" t="s" s="2">
@@ -11553,7 +11567,7 @@
         <v>22</v>
       </c>
       <c r="AF85" t="s" s="2">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="AG85" t="s" s="2">
         <v>80</v>
@@ -11568,10 +11582,10 @@
         <v>101</v>
       </c>
       <c r="AK85" t="s" s="2">
-        <v>497</v>
+        <v>499</v>
       </c>
       <c r="AL85" t="s" s="2">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="AM85" t="s" s="2">
         <v>22</v>
